--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ooharastudent-my.sharepoint.com/personal/fko2547007_stu_o-hara_ac_jp/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\WinterGame_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{870D6A0E-1D9D-416E-BF63-A21EBC631B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{186E12F0-682B-427B-873C-8BC82D5C58D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43113BBA-30BE-4690-8C6E-C6EE7F1BF247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7566CFE-2916-499A-9B03-90D4A40E65D0}"/>
+    <workbookView xWindow="3105" yWindow="480" windowWidth="21600" windowHeight="13440" xr2:uid="{A7566CFE-2916-499A-9B03-90D4A40E65D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -290,6 +290,30 @@
   </si>
   <si>
     <t>リアクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総コスト</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一日何時間</t>
+    <rPh sb="0" eb="2">
+      <t>イチニチ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ナンジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材集め</t>
+    <rPh sb="0" eb="3">
+      <t>ソザイアツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -392,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -415,13 +439,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -446,13 +481,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -479,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64E8C5C-0215-4D6D-A7A8-9AD81DDE0766}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -844,33 +876,11 @@
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="10" t="s">
-        <v>37</v>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
@@ -882,25 +892,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8">
-        <v>2</v>
-      </c>
-      <c r="L3" s="8">
-        <v>3</v>
-      </c>
-      <c r="M3" s="8">
-        <v>4</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" t="s">
-        <v>38</v>
+      <c r="F3">
+        <f>SUM(C3:C50)</f>
+        <v>202</v>
+      </c>
+      <c r="G3">
+        <f>F3/76</f>
+        <v>2.6578947368421053</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
@@ -912,32 +910,6 @@
         <v>2</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="8">
-        <v>5</v>
-      </c>
-      <c r="H4" s="8">
-        <v>6</v>
-      </c>
-      <c r="I4" s="8">
-        <v>7</v>
-      </c>
-      <c r="J4" s="8">
-        <v>8</v>
-      </c>
-      <c r="K4" s="8">
-        <v>9</v>
-      </c>
-      <c r="L4" s="8">
-        <v>10</v>
-      </c>
-      <c r="M4" s="8">
-        <v>11</v>
-      </c>
-      <c r="O4" s="15"/>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
@@ -948,32 +920,6 @@
         <v>4</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8">
-        <v>12</v>
-      </c>
-      <c r="H5" s="8">
-        <v>13</v>
-      </c>
-      <c r="I5" s="8">
-        <v>14</v>
-      </c>
-      <c r="J5" s="8">
-        <v>15</v>
-      </c>
-      <c r="K5" s="8">
-        <v>16</v>
-      </c>
-      <c r="L5" s="8">
-        <v>17</v>
-      </c>
-      <c r="M5" s="8">
-        <v>18</v>
-      </c>
-      <c r="O5" s="16"/>
-      <c r="P5" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
@@ -984,32 +930,6 @@
         <v>4</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="8">
-        <v>19</v>
-      </c>
-      <c r="H6" s="8">
-        <v>20</v>
-      </c>
-      <c r="I6" s="8">
-        <v>21</v>
-      </c>
-      <c r="J6" s="8">
-        <v>22</v>
-      </c>
-      <c r="K6" s="8">
-        <v>23</v>
-      </c>
-      <c r="L6" s="8">
-        <v>24</v>
-      </c>
-      <c r="M6" s="8">
-        <v>25</v>
-      </c>
-      <c r="O6" s="18"/>
-      <c r="P6" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
@@ -1020,26 +940,6 @@
         <v>5</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8">
-        <v>26</v>
-      </c>
-      <c r="H7" s="8">
-        <v>27</v>
-      </c>
-      <c r="I7" s="8">
-        <v>28</v>
-      </c>
-      <c r="J7" s="8">
-        <v>29</v>
-      </c>
-      <c r="K7" s="8">
-        <v>30</v>
-      </c>
-      <c r="L7" s="8">
-        <v>31</v>
-      </c>
-      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
@@ -1048,16 +948,6 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="F8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
@@ -1068,16 +958,6 @@
         <v>20</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="13">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
@@ -1086,28 +966,6 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="13">
-        <v>2</v>
-      </c>
-      <c r="H10" s="13">
-        <v>3</v>
-      </c>
-      <c r="I10" s="13">
-        <v>4</v>
-      </c>
-      <c r="J10" s="13">
-        <v>5</v>
-      </c>
-      <c r="K10" s="13">
-        <v>6</v>
-      </c>
-      <c r="L10" s="13">
-        <v>7</v>
-      </c>
-      <c r="M10" s="13">
-        <v>8</v>
-      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
@@ -1118,28 +976,6 @@
         <v>5</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="13">
-        <v>9</v>
-      </c>
-      <c r="H11" s="13">
-        <v>10</v>
-      </c>
-      <c r="I11" s="13">
-        <v>11</v>
-      </c>
-      <c r="J11" s="13">
-        <v>12</v>
-      </c>
-      <c r="K11" s="13">
-        <v>13</v>
-      </c>
-      <c r="L11" s="13">
-        <v>14</v>
-      </c>
-      <c r="M11" s="13">
-        <v>15</v>
-      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
@@ -1150,28 +986,6 @@
         <v>5</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="13">
-        <v>16</v>
-      </c>
-      <c r="H12" s="13">
-        <v>17</v>
-      </c>
-      <c r="I12" s="13">
-        <v>18</v>
-      </c>
-      <c r="J12" s="13">
-        <v>19</v>
-      </c>
-      <c r="K12" s="13">
-        <v>20</v>
-      </c>
-      <c r="L12" s="13">
-        <v>21</v>
-      </c>
-      <c r="M12" s="13">
-        <v>22</v>
-      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
@@ -1180,27 +994,33 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="13">
-        <v>23</v>
-      </c>
-      <c r="H13" s="13">
-        <v>24</v>
-      </c>
-      <c r="I13" s="13">
-        <v>25</v>
-      </c>
-      <c r="J13" s="13">
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="13">
+      <c r="G13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="13">
+      <c r="H13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="13">
+      <c r="I13" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
@@ -1213,15 +1033,25 @@
       </c>
       <c r="D14" s="2"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="13">
-        <v>30</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>3</v>
+      </c>
+      <c r="M14" s="4">
+        <v>4</v>
+      </c>
+      <c r="O14" s="13"/>
+      <c r="P14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -1232,16 +1062,32 @@
         <v>5</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="F15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>6</v>
+      </c>
+      <c r="I15" s="4">
+        <v>7</v>
+      </c>
+      <c r="J15" s="4">
+        <v>8</v>
+      </c>
+      <c r="K15" s="4">
+        <v>9</v>
+      </c>
+      <c r="L15" s="4">
+        <v>10</v>
+      </c>
+      <c r="M15" s="4">
+        <v>11</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="P15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -1253,27 +1099,33 @@
       </c>
       <c r="D16" s="2"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
-        <v>2</v>
-      </c>
-      <c r="J16" s="12">
-        <v>3</v>
-      </c>
-      <c r="K16" s="12">
-        <v>4</v>
-      </c>
-      <c r="L16" s="12">
-        <v>5</v>
-      </c>
-      <c r="M16" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G16" s="4">
+        <v>12</v>
+      </c>
+      <c r="H16" s="4">
+        <v>13</v>
+      </c>
+      <c r="I16" s="4">
+        <v>14</v>
+      </c>
+      <c r="J16" s="4">
+        <v>15</v>
+      </c>
+      <c r="K16" s="4">
+        <v>16</v>
+      </c>
+      <c r="L16" s="4">
+        <v>17</v>
+      </c>
+      <c r="M16" s="4">
+        <v>18</v>
+      </c>
+      <c r="O16" s="15"/>
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>15</v>
@@ -1283,91 +1135,81 @@
       </c>
       <c r="D17" s="2"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="12">
-        <v>7</v>
-      </c>
-      <c r="H17" s="12">
-        <v>8</v>
-      </c>
-      <c r="I17" s="12">
-        <v>9</v>
-      </c>
-      <c r="J17" s="12">
+      <c r="G17" s="4">
+        <v>19</v>
+      </c>
+      <c r="H17" s="4">
+        <v>20</v>
+      </c>
+      <c r="I17" s="4">
+        <v>21</v>
+      </c>
+      <c r="J17" s="4">
+        <v>22</v>
+      </c>
+      <c r="K17" s="4">
+        <v>23</v>
+      </c>
+      <c r="L17" s="4">
+        <v>24</v>
+      </c>
+      <c r="M17" s="4">
+        <v>25</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="12">
-        <v>11</v>
-      </c>
-      <c r="L17" s="12">
-        <v>12</v>
-      </c>
-      <c r="M17" s="12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="19">
+      <c r="C18" s="2">
         <v>20</v>
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="12">
-        <v>14</v>
-      </c>
-      <c r="H18" s="12">
-        <v>15</v>
-      </c>
-      <c r="I18" s="12">
-        <v>16</v>
-      </c>
-      <c r="J18" s="12">
-        <v>17</v>
-      </c>
-      <c r="K18" s="17">
-        <v>18</v>
-      </c>
-      <c r="L18" s="17">
-        <v>19</v>
-      </c>
-      <c r="M18" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G18" s="4">
+        <v>26</v>
+      </c>
+      <c r="H18" s="4">
+        <v>27</v>
+      </c>
+      <c r="I18" s="4">
+        <v>28</v>
+      </c>
+      <c r="J18" s="4">
+        <v>29</v>
+      </c>
+      <c r="K18" s="4">
+        <v>30</v>
+      </c>
+      <c r="L18" s="4">
+        <v>31</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="17">
-        <v>21</v>
-      </c>
-      <c r="H19" s="17">
-        <v>22</v>
-      </c>
-      <c r="I19" s="17">
-        <v>23</v>
-      </c>
-      <c r="J19" s="17">
-        <v>24</v>
-      </c>
-      <c r="K19" s="17">
-        <v>25</v>
-      </c>
-      <c r="L19" s="17">
-        <v>26</v>
-      </c>
-      <c r="M19" s="17">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="F19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>16</v>
@@ -1377,23 +1219,17 @@
       </c>
       <c r="D20" s="2"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="17">
-        <v>28</v>
-      </c>
-      <c r="H20" s="17">
-        <v>29</v>
-      </c>
-      <c r="I20" s="17">
-        <v>30</v>
-      </c>
-      <c r="J20" s="17">
-        <v>31</v>
-      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>17</v>
@@ -1402,18 +1238,30 @@
         <v>10</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="F21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="F21" s="4"/>
+      <c r="G21" s="12">
+        <v>2</v>
+      </c>
+      <c r="H21" s="12">
+        <v>3</v>
+      </c>
+      <c r="I21" s="12">
+        <v>4</v>
+      </c>
+      <c r="J21" s="12">
+        <v>5</v>
+      </c>
+      <c r="K21" s="12">
+        <v>6</v>
+      </c>
+      <c r="L21" s="12">
+        <v>7</v>
+      </c>
+      <c r="M21" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -1423,21 +1271,29 @@
       </c>
       <c r="D22" s="2"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="17">
-        <v>1</v>
-      </c>
-      <c r="L22" s="17">
-        <v>2</v>
-      </c>
-      <c r="M22" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G22" s="12">
+        <v>9</v>
+      </c>
+      <c r="H22" s="12">
+        <v>10</v>
+      </c>
+      <c r="I22" s="12">
+        <v>11</v>
+      </c>
+      <c r="J22" s="12">
+        <v>12</v>
+      </c>
+      <c r="K22" s="12">
+        <v>13</v>
+      </c>
+      <c r="L22" s="12">
+        <v>14</v>
+      </c>
+      <c r="M22" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>19</v>
@@ -1447,61 +1303,61 @@
       </c>
       <c r="D23" s="2"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="11">
-        <v>4</v>
-      </c>
-      <c r="H23" s="11">
-        <v>5</v>
-      </c>
-      <c r="I23" s="11">
-        <v>6</v>
-      </c>
-      <c r="J23" s="11">
-        <v>7</v>
-      </c>
-      <c r="K23" s="11">
-        <v>8</v>
-      </c>
-      <c r="L23" s="11">
-        <v>9</v>
-      </c>
-      <c r="M23" s="11">
+      <c r="G23" s="12">
+        <v>16</v>
+      </c>
+      <c r="H23" s="12">
+        <v>17</v>
+      </c>
+      <c r="I23" s="12">
+        <v>18</v>
+      </c>
+      <c r="J23" s="12">
+        <v>19</v>
+      </c>
+      <c r="K23" s="12">
+        <v>20</v>
+      </c>
+      <c r="L23" s="12">
+        <v>21</v>
+      </c>
+      <c r="M23" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="19">
+      <c r="C24" s="2">
         <v>7</v>
       </c>
       <c r="D24" s="2"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="11">
-        <v>11</v>
-      </c>
-      <c r="H24" s="11">
-        <v>12</v>
-      </c>
-      <c r="I24" s="11">
-        <v>13</v>
-      </c>
-      <c r="J24" s="11">
-        <v>14</v>
-      </c>
-      <c r="K24" s="11">
-        <v>15</v>
-      </c>
-      <c r="L24" s="8">
-        <v>16</v>
-      </c>
-      <c r="M24" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G24" s="12">
+        <v>23</v>
+      </c>
+      <c r="H24" s="12">
+        <v>24</v>
+      </c>
+      <c r="I24" s="12">
+        <v>25</v>
+      </c>
+      <c r="J24" s="12">
+        <v>26</v>
+      </c>
+      <c r="K24" s="12">
+        <v>27</v>
+      </c>
+      <c r="L24" s="12">
+        <v>28</v>
+      </c>
+      <c r="M24" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1509,29 +1365,17 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="8">
-        <v>18</v>
-      </c>
-      <c r="H25" s="8">
-        <v>19</v>
-      </c>
-      <c r="I25" s="8">
-        <v>20</v>
-      </c>
-      <c r="J25" s="8">
-        <v>21</v>
-      </c>
-      <c r="K25" s="8">
-        <v>22</v>
-      </c>
-      <c r="L25" s="9">
-        <v>23</v>
-      </c>
-      <c r="M25" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G25" s="12">
+        <v>30</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>20</v>
@@ -1540,30 +1384,18 @@
         <v>15</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="8">
-        <v>25</v>
-      </c>
-      <c r="H26" s="8">
-        <v>26</v>
-      </c>
-      <c r="I26" s="8">
-        <v>27</v>
-      </c>
-      <c r="J26" s="8">
-        <v>28</v>
-      </c>
-      <c r="K26" s="8">
-        <v>29</v>
-      </c>
-      <c r="L26" s="8">
-        <v>30</v>
-      </c>
-      <c r="M26" s="8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="F26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -1572,8 +1404,28 @@
         <v>15</v>
       </c>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="11">
+        <v>1</v>
+      </c>
+      <c r="I27" s="11">
+        <v>2</v>
+      </c>
+      <c r="J27" s="11">
+        <v>3</v>
+      </c>
+      <c r="K27" s="11">
+        <v>4</v>
+      </c>
+      <c r="L27" s="11">
+        <v>5</v>
+      </c>
+      <c r="M27" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>22</v>
@@ -1582,6 +1434,224 @@
         <v>15</v>
       </c>
       <c r="D28" s="2"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="11">
+        <v>7</v>
+      </c>
+      <c r="H28" s="11">
+        <v>8</v>
+      </c>
+      <c r="I28" s="11">
+        <v>9</v>
+      </c>
+      <c r="J28" s="11">
+        <v>10</v>
+      </c>
+      <c r="K28" s="11">
+        <v>11</v>
+      </c>
+      <c r="L28" s="11">
+        <v>12</v>
+      </c>
+      <c r="M28" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="18">
+        <v>20</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="11">
+        <v>14</v>
+      </c>
+      <c r="H29" s="11">
+        <v>15</v>
+      </c>
+      <c r="I29" s="11">
+        <v>16</v>
+      </c>
+      <c r="J29" s="11">
+        <v>17</v>
+      </c>
+      <c r="K29" s="16">
+        <v>18</v>
+      </c>
+      <c r="L29" s="16">
+        <v>19</v>
+      </c>
+      <c r="M29" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F30" s="4"/>
+      <c r="G30" s="16">
+        <v>21</v>
+      </c>
+      <c r="H30" s="16">
+        <v>22</v>
+      </c>
+      <c r="I30" s="16">
+        <v>23</v>
+      </c>
+      <c r="J30" s="16">
+        <v>24</v>
+      </c>
+      <c r="K30" s="16">
+        <v>25</v>
+      </c>
+      <c r="L30" s="16">
+        <v>26</v>
+      </c>
+      <c r="M30" s="16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F31" s="4"/>
+      <c r="G31" s="16">
+        <v>28</v>
+      </c>
+      <c r="H31" s="16">
+        <v>29</v>
+      </c>
+      <c r="I31" s="16">
+        <v>30</v>
+      </c>
+      <c r="J31" s="16">
+        <v>31</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="16">
+        <v>1</v>
+      </c>
+      <c r="L33" s="16">
+        <v>2</v>
+      </c>
+      <c r="M33" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F34" s="4"/>
+      <c r="G34" s="10">
+        <v>4</v>
+      </c>
+      <c r="H34" s="10">
+        <v>5</v>
+      </c>
+      <c r="I34" s="10">
+        <v>6</v>
+      </c>
+      <c r="J34" s="10">
+        <v>7</v>
+      </c>
+      <c r="K34" s="10">
+        <v>8</v>
+      </c>
+      <c r="L34" s="10">
+        <v>9</v>
+      </c>
+      <c r="M34" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F35" s="4"/>
+      <c r="G35" s="10">
+        <v>11</v>
+      </c>
+      <c r="H35" s="10">
+        <v>12</v>
+      </c>
+      <c r="I35" s="10">
+        <v>13</v>
+      </c>
+      <c r="J35" s="10">
+        <v>14</v>
+      </c>
+      <c r="K35" s="10">
+        <v>15</v>
+      </c>
+      <c r="L35" s="4">
+        <v>16</v>
+      </c>
+      <c r="M35" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4">
+        <v>18</v>
+      </c>
+      <c r="H36" s="4">
+        <v>19</v>
+      </c>
+      <c r="I36" s="4">
+        <v>20</v>
+      </c>
+      <c r="J36" s="4">
+        <v>21</v>
+      </c>
+      <c r="K36" s="4">
+        <v>22</v>
+      </c>
+      <c r="L36" s="8">
+        <v>23</v>
+      </c>
+      <c r="M36" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4">
+        <v>25</v>
+      </c>
+      <c r="H37" s="4">
+        <v>26</v>
+      </c>
+      <c r="I37" s="4">
+        <v>27</v>
+      </c>
+      <c r="J37" s="4">
+        <v>28</v>
+      </c>
+      <c r="K37" s="4">
+        <v>29</v>
+      </c>
+      <c r="L37" s="4">
+        <v>30</v>
+      </c>
+      <c r="M37" s="4">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\WinterGame_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SasakiTaiga\Documents\GitHub\WinterGame_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43113BBA-30BE-4690-8C6E-C6EE7F1BF247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439A5492-90FB-46AF-896B-2FE47D09BBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="480" windowWidth="21600" windowHeight="13440" xr2:uid="{A7566CFE-2916-499A-9B03-90D4A40E65D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7566CFE-2916-499A-9B03-90D4A40E65D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -313,6 +313,67 @@
     <t>素材集め</t>
     <rPh sb="0" eb="3">
       <t>ソザイアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャージショット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被弾</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定(矩形)</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性質(貫通とか)</t>
+    <rPh sb="0" eb="2">
+      <t>セイシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定(円形)</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エンケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -450,13 +511,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,7 +585,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -848,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64E8C5C-0215-4D6D-A7A8-9AD81DDE0766}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -894,11 +977,11 @@
       <c r="D3" s="2"/>
       <c r="F3">
         <f>SUM(C3:C50)</f>
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="G3">
         <f>F3/76</f>
-        <v>2.6578947368421053</v>
+        <v>2.7894736842105261</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
@@ -920,6 +1003,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
@@ -942,57 +1026,56 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="21">
+        <v>4</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="21">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B11" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C13" s="2">
         <v>20</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="3" t="s">
         <v>26</v>
@@ -1024,14 +1107,9 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="B14" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1054,14 +1132,6 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
         <v>5</v>
@@ -1090,14 +1160,6 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
         <v>12</v>
@@ -1126,14 +1188,6 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
         <v>19</v>
@@ -1162,14 +1216,6 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
         <v>26</v>
@@ -1192,12 +1238,9 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
       <c r="F19" s="5" t="s">
         <v>34</v>
       </c>
@@ -1210,14 +1253,9 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2"/>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1230,14 +1268,9 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2"/>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="12">
         <v>2</v>
@@ -1262,14 +1295,6 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2"/>
       <c r="F22" s="4"/>
       <c r="G22" s="12">
         <v>9</v>
@@ -1294,14 +1319,6 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2"/>
       <c r="F23" s="4"/>
       <c r="G23" s="12">
         <v>16</v>
@@ -1326,14 +1343,6 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="2">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2"/>
       <c r="F24" s="4"/>
       <c r="G24" s="12">
         <v>23</v>
@@ -1359,7 +1368,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1378,10 +1387,10 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="6" t="s">
@@ -1398,10 +1407,10 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2"/>
       <c r="F27" s="4"/>
@@ -1426,13 +1435,11 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="2">
-        <v>15</v>
-      </c>
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="F28" s="4"/>
       <c r="G28" s="11">
@@ -1458,12 +1465,14 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="18">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2">
         <v>20</v>
       </c>
+      <c r="D29" s="2"/>
       <c r="F29" s="4"/>
       <c r="G29" s="11">
         <v>14</v>
@@ -1488,6 +1497,14 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="F30" s="4"/>
       <c r="G30" s="16">
         <v>21</v>
@@ -1512,6 +1529,14 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="F31" s="4"/>
       <c r="G31" s="16">
         <v>28</v>
@@ -1530,6 +1555,14 @@
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="F32" s="7" t="s">
         <v>36</v>
       </c>
@@ -1541,7 +1574,15 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -1557,7 +1598,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="F34" s="4"/>
       <c r="G34" s="10">
         <v>4</v>
@@ -1581,7 +1628,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2"/>
       <c r="F35" s="4"/>
       <c r="G35" s="10">
         <v>11</v>
@@ -1605,7 +1660,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4">
         <v>18</v>
@@ -1629,7 +1692,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4">
         <v>25</v>
@@ -1651,6 +1722,72 @@
       </c>
       <c r="M37" s="4">
         <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="2">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="2">
+        <v>15</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="2">
+        <v>15</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="18">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SasakiTaiga\Documents\GitHub\WinterGame_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\WinterGame_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439A5492-90FB-46AF-896B-2FE47D09BBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D11545C-2A5C-49AF-B459-DC102C1E8795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7566CFE-2916-499A-9B03-90D4A40E65D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -46,21 +46,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -99,14 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アニメーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ーアニメーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ーマップ設計</t>
     <rPh sb="4" eb="6">
       <t>セッケイ</t>
@@ -114,94 +92,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>雑魚敵5種類</t>
-    <rPh sb="0" eb="3">
-      <t>ザコテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>射撃</t>
-    <rPh sb="0" eb="2">
-      <t>シャゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ぴょんぴょん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>行動パターン</t>
-    <rPh sb="0" eb="2">
-      <t>コウドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弾幕</t>
-    <rPh sb="0" eb="2">
-      <t>ダンマク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>突進</t>
-    <rPh sb="0" eb="2">
-      <t>トッシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雑魚敵生み出す</t>
-    <rPh sb="0" eb="3">
-      <t>ザコテキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップとの当たり判定</t>
-    <rPh sb="5" eb="6">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弾の当たり判定</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>普通に当たり判定</t>
-    <rPh sb="0" eb="2">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -310,13 +201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>素材集め</t>
-    <rPh sb="0" eb="3">
-      <t>ソザイアツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チャージショット</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -374,6 +258,70 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>エンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚敵</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通移動</t>
+    <rPh sb="0" eb="4">
+      <t>フツウイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浮遊射撃</t>
+    <rPh sb="0" eb="2">
+      <t>フユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浮遊突撃</t>
+    <rPh sb="0" eb="4">
+      <t>フユウトツゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動_突進</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トッシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動_弾幕</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンマク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動_大技</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オオワザ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -477,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -511,26 +459,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,16 +520,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64E8C5C-0215-4D6D-A7A8-9AD81DDE0766}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -945,7 +874,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
@@ -954,22 +883,22 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -977,17 +906,17 @@
       <c r="D3" s="2"/>
       <c r="F3">
         <f>SUM(C3:C50)</f>
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="G3">
         <f>F3/76</f>
-        <v>2.7894736842105261</v>
+        <v>1.8289473684210527</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -997,18 +926,18 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -1018,98 +947,106 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
-      <c r="B8" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="21">
-        <v>4</v>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
-      <c r="B9" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="21">
-        <v>3</v>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="19" t="s">
-        <v>50</v>
-      </c>
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B14" s="19" t="s">
-        <v>50</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1128,10 +1065,18 @@
       </c>
       <c r="O14" s="13"/>
       <c r="P14" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
         <v>5</v>
@@ -1156,10 +1101,18 @@
       </c>
       <c r="O15" s="14"/>
       <c r="P15" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
         <v>12</v>
@@ -1184,10 +1137,16 @@
       </c>
       <c r="O16" s="15"/>
       <c r="P16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
         <v>19</v>
@@ -1212,10 +1171,18 @@
       </c>
       <c r="O17" s="17"/>
       <c r="P17" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
         <v>26</v>
@@ -1238,11 +1205,16 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="F19" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1253,9 +1225,12 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1268,9 +1243,14 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2"/>
       <c r="F21" s="4"/>
       <c r="G21" s="12">
         <v>2</v>
@@ -1295,6 +1275,14 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="F22" s="4"/>
       <c r="G22" s="12">
         <v>9</v>
@@ -1319,6 +1307,14 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="F23" s="4"/>
       <c r="G23" s="12">
         <v>16</v>
@@ -1343,6 +1339,14 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="F24" s="4"/>
       <c r="G24" s="12">
         <v>23</v>
@@ -1367,11 +1371,12 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="19">
+        <v>12</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="F25" s="4"/>
       <c r="G25" s="12">
@@ -1385,16 +1390,14 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="2">
-        <v>5</v>
-      </c>
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="F26" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1407,10 +1410,10 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2"/>
       <c r="F27" s="4"/>
@@ -1435,11 +1438,13 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="F28" s="4"/>
       <c r="G28" s="11">
@@ -1467,7 +1472,7 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2">
         <v>20</v>
@@ -1499,10 +1504,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2"/>
       <c r="F30" s="4"/>
@@ -1530,12 +1535,8 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2</v>
-      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="F31" s="4"/>
       <c r="G31" s="16">
@@ -1556,15 +1557,11 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="2">
-        <v>4</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="F32" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -1576,12 +1573,8 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2">
-        <v>20</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1599,9 +1592,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1630,12 +1621,8 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2">
-        <v>10</v>
-      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="F35" s="4"/>
       <c r="G35" s="10">
@@ -1662,12 +1649,8 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="2">
-        <v>10</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4">
@@ -1694,12 +1677,8 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="2">
-        <v>6</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4">
@@ -1722,72 +1701,6 @@
       </c>
       <c r="M37" s="4">
         <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="2">
-        <v>6</v>
-      </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="2">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="2">
-        <v>15</v>
-      </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="2">
-        <v>15</v>
-      </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="2">
-        <v>15</v>
-      </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="18">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\WinterGame_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D11545C-2A5C-49AF-B459-DC102C1E8795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFE25B0-0449-42FC-AA14-53E2D04C1EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7566CFE-2916-499A-9B03-90D4A40E65D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -115,30 +115,6 @@
       <t>ジツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>木</t>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>土</t>
   </si>
   <si>
     <t>11月</t>
@@ -363,7 +339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,12 +350,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4EA72E"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -465,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,12 +445,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -490,40 +460,34 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,7 +827,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -889,10 +853,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
@@ -932,7 +896,6 @@
         <v>4</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
@@ -947,7 +910,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -957,7 +920,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -967,22 +930,50 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2"/>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
       <c r="D10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="11">
+        <v>1</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
@@ -991,6 +982,32 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="11">
+        <v>4</v>
+      </c>
+      <c r="J11" s="11">
+        <v>5</v>
+      </c>
+      <c r="K11" s="11">
+        <v>6</v>
+      </c>
+      <c r="L11" s="11">
+        <v>7</v>
+      </c>
+      <c r="M11" s="11">
+        <v>8</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="P11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
@@ -1001,248 +1018,262 @@
         <v>20</v>
       </c>
       <c r="D12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="11">
+        <v>9</v>
+      </c>
+      <c r="H12" s="11">
+        <v>10</v>
+      </c>
+      <c r="I12" s="11">
+        <v>11</v>
+      </c>
+      <c r="J12" s="11">
+        <v>12</v>
+      </c>
+      <c r="K12" s="11">
+        <v>13</v>
+      </c>
+      <c r="L12" s="11">
+        <v>14</v>
+      </c>
+      <c r="M12" s="11">
+        <v>15</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="11">
         <v>16</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="H13" s="11">
         <v>17</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="I13" s="11">
         <v>18</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="J13" s="11">
         <v>19</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="K13" s="11">
         <v>20</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="9" t="s">
-        <v>24</v>
+      <c r="L13" s="11">
+        <v>21</v>
+      </c>
+      <c r="M13" s="11">
+        <v>22</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4">
-        <v>2</v>
-      </c>
-      <c r="L14" s="4">
-        <v>3</v>
-      </c>
-      <c r="M14" s="4">
-        <v>4</v>
-      </c>
-      <c r="O14" s="13"/>
-      <c r="P14" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="11">
+        <v>23</v>
+      </c>
+      <c r="H14" s="11">
+        <v>24</v>
+      </c>
+      <c r="I14" s="11">
         <v>25</v>
+      </c>
+      <c r="J14" s="11">
+        <v>26</v>
+      </c>
+      <c r="K14" s="11">
+        <v>27</v>
+      </c>
+      <c r="L14" s="11">
+        <v>28</v>
+      </c>
+      <c r="M14" s="11">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4">
-        <v>6</v>
-      </c>
-      <c r="I15" s="4">
-        <v>7</v>
-      </c>
-      <c r="J15" s="4">
-        <v>8</v>
-      </c>
-      <c r="K15" s="4">
-        <v>9</v>
-      </c>
-      <c r="L15" s="4">
-        <v>10</v>
-      </c>
-      <c r="M15" s="4">
-        <v>11</v>
-      </c>
-      <c r="O15" s="14"/>
-      <c r="P15" t="s">
-        <v>26</v>
-      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="11">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <v>12</v>
-      </c>
-      <c r="H16" s="4">
-        <v>13</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="F16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="4">
-        <v>15</v>
-      </c>
-      <c r="K16" s="4">
-        <v>16</v>
-      </c>
-      <c r="L16" s="4">
-        <v>17</v>
-      </c>
-      <c r="M16" s="4">
-        <v>18</v>
-      </c>
-      <c r="O16" s="15"/>
-      <c r="P16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
-        <v>19</v>
-      </c>
-      <c r="H17" s="4">
-        <v>20</v>
-      </c>
-      <c r="I17" s="4">
-        <v>21</v>
-      </c>
-      <c r="J17" s="4">
-        <v>22</v>
-      </c>
-      <c r="K17" s="4">
-        <v>23</v>
-      </c>
-      <c r="L17" s="4">
-        <v>24</v>
-      </c>
-      <c r="M17" s="4">
-        <v>25</v>
-      </c>
-      <c r="O17" s="17"/>
-      <c r="P17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2</v>
+      </c>
+      <c r="J17" s="10">
+        <v>3</v>
+      </c>
+      <c r="K17" s="10">
+        <v>4</v>
+      </c>
+      <c r="L17" s="10">
+        <v>5</v>
+      </c>
+      <c r="M17" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
-        <v>26</v>
-      </c>
-      <c r="H18" s="4">
-        <v>27</v>
-      </c>
-      <c r="I18" s="4">
-        <v>28</v>
-      </c>
-      <c r="J18" s="4">
-        <v>29</v>
-      </c>
-      <c r="K18" s="4">
-        <v>30</v>
-      </c>
-      <c r="L18" s="4">
-        <v>31</v>
-      </c>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F18" s="3"/>
+      <c r="G18" s="10">
+        <v>7</v>
+      </c>
+      <c r="H18" s="10">
+        <v>8</v>
+      </c>
+      <c r="I18" s="10">
+        <v>9</v>
+      </c>
+      <c r="J18" s="10">
+        <v>10</v>
+      </c>
+      <c r="K18" s="10">
+        <v>11</v>
+      </c>
+      <c r="L18" s="10">
+        <v>12</v>
+      </c>
+      <c r="M18" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="F19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F19" s="3"/>
+      <c r="G19" s="10">
+        <v>14</v>
+      </c>
+      <c r="H19" s="10">
+        <v>15</v>
+      </c>
+      <c r="I19" s="10">
+        <v>16</v>
+      </c>
+      <c r="J19" s="10">
+        <v>17</v>
+      </c>
+      <c r="K19" s="15">
+        <v>18</v>
+      </c>
+      <c r="L19" s="15">
+        <v>19</v>
+      </c>
+      <c r="M19" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F20" s="3"/>
+      <c r="G20" s="15">
+        <v>21</v>
+      </c>
+      <c r="H20" s="15">
+        <v>22</v>
+      </c>
+      <c r="I20" s="15">
+        <v>23</v>
+      </c>
+      <c r="J20" s="15">
+        <v>24</v>
+      </c>
+      <c r="K20" s="15">
+        <v>25</v>
+      </c>
+      <c r="L20" s="15">
+        <v>26</v>
+      </c>
+      <c r="M20" s="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>9</v>
@@ -1251,257 +1282,213 @@
         <v>5</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="12">
-        <v>2</v>
-      </c>
-      <c r="H21" s="12">
-        <v>3</v>
-      </c>
-      <c r="I21" s="12">
-        <v>4</v>
-      </c>
-      <c r="J21" s="12">
-        <v>5</v>
-      </c>
-      <c r="K21" s="12">
-        <v>6</v>
-      </c>
-      <c r="L21" s="12">
-        <v>7</v>
-      </c>
-      <c r="M21" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F21" s="3"/>
+      <c r="G21" s="15">
+        <v>28</v>
+      </c>
+      <c r="H21" s="15">
+        <v>29</v>
+      </c>
+      <c r="I21" s="15">
+        <v>30</v>
+      </c>
+      <c r="J21" s="15">
+        <v>31</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="12">
-        <v>9</v>
-      </c>
-      <c r="H22" s="12">
-        <v>10</v>
-      </c>
-      <c r="I22" s="12">
-        <v>11</v>
-      </c>
-      <c r="J22" s="12">
-        <v>12</v>
-      </c>
-      <c r="K22" s="12">
-        <v>13</v>
-      </c>
-      <c r="L22" s="12">
-        <v>14</v>
-      </c>
-      <c r="M22" s="12">
+      <c r="F22" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="12">
-        <v>16</v>
-      </c>
-      <c r="H23" s="12">
-        <v>17</v>
-      </c>
-      <c r="I23" s="12">
-        <v>18</v>
-      </c>
-      <c r="J23" s="12">
-        <v>19</v>
-      </c>
-      <c r="K23" s="12">
-        <v>20</v>
-      </c>
-      <c r="L23" s="12">
-        <v>21</v>
-      </c>
-      <c r="M23" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="15">
+        <v>1</v>
+      </c>
+      <c r="L23" s="15">
+        <v>2</v>
+      </c>
+      <c r="M23" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="12">
-        <v>23</v>
-      </c>
-      <c r="H24" s="12">
-        <v>24</v>
-      </c>
-      <c r="I24" s="12">
-        <v>25</v>
-      </c>
-      <c r="J24" s="12">
-        <v>26</v>
-      </c>
-      <c r="K24" s="12">
-        <v>27</v>
-      </c>
-      <c r="L24" s="12">
-        <v>28</v>
-      </c>
-      <c r="M24" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B25" s="19" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="9">
+        <v>4</v>
+      </c>
+      <c r="H24" s="9">
+        <v>5</v>
+      </c>
+      <c r="I24" s="9">
+        <v>6</v>
+      </c>
+      <c r="J24" s="9">
         <v>7</v>
       </c>
-      <c r="C25" s="19">
+      <c r="K24" s="9">
+        <v>8</v>
+      </c>
+      <c r="L24" s="9">
+        <v>9</v>
+      </c>
+      <c r="M24" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B25" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="17">
         <v>12</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="12">
-        <v>30</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F25" s="3"/>
+      <c r="G25" s="9">
+        <v>11</v>
+      </c>
+      <c r="H25" s="9">
+        <v>12</v>
+      </c>
+      <c r="I25" s="9">
+        <v>13</v>
+      </c>
+      <c r="J25" s="9">
+        <v>14</v>
+      </c>
+      <c r="K25" s="9">
+        <v>15</v>
+      </c>
+      <c r="L25" s="3">
+        <v>16</v>
+      </c>
+      <c r="M25" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
+        <v>18</v>
+      </c>
+      <c r="H26" s="3">
+        <v>19</v>
+      </c>
+      <c r="I26" s="3">
+        <v>20</v>
+      </c>
+      <c r="J26" s="3">
+        <v>21</v>
+      </c>
+      <c r="K26" s="3">
         <v>22</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="L26" s="7">
+        <v>23</v>
+      </c>
+      <c r="M26" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="11">
-        <v>1</v>
-      </c>
-      <c r="I27" s="11">
-        <v>2</v>
-      </c>
-      <c r="J27" s="11">
-        <v>3</v>
-      </c>
-      <c r="K27" s="11">
-        <v>4</v>
-      </c>
-      <c r="L27" s="11">
-        <v>5</v>
-      </c>
-      <c r="M27" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
+        <v>25</v>
+      </c>
+      <c r="H27" s="3">
+        <v>26</v>
+      </c>
+      <c r="I27" s="3">
+        <v>27</v>
+      </c>
+      <c r="J27" s="3">
+        <v>28</v>
+      </c>
+      <c r="K27" s="3">
+        <v>29</v>
+      </c>
+      <c r="L27" s="3">
+        <v>30</v>
+      </c>
+      <c r="M27" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="11">
-        <v>7</v>
-      </c>
-      <c r="H28" s="11">
-        <v>8</v>
-      </c>
-      <c r="I28" s="11">
-        <v>9</v>
-      </c>
-      <c r="J28" s="11">
-        <v>10</v>
-      </c>
-      <c r="K28" s="11">
-        <v>11</v>
-      </c>
-      <c r="L28" s="11">
-        <v>12</v>
-      </c>
-      <c r="M28" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C29" s="2">
         <v>20</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="11">
-        <v>14</v>
-      </c>
-      <c r="H29" s="11">
-        <v>15</v>
-      </c>
-      <c r="I29" s="11">
-        <v>16</v>
-      </c>
-      <c r="J29" s="11">
-        <v>17</v>
-      </c>
-      <c r="K29" s="16">
-        <v>18</v>
-      </c>
-      <c r="L29" s="16">
-        <v>19</v>
-      </c>
-      <c r="M29" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -1510,198 +1497,48 @@
         <v>10</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="16">
-        <v>21</v>
-      </c>
-      <c r="H30" s="16">
-        <v>22</v>
-      </c>
-      <c r="I30" s="16">
-        <v>23</v>
-      </c>
-      <c r="J30" s="16">
-        <v>24</v>
-      </c>
-      <c r="K30" s="16">
-        <v>25</v>
-      </c>
-      <c r="L30" s="16">
-        <v>26</v>
-      </c>
-      <c r="M30" s="16">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="16">
-        <v>28</v>
-      </c>
-      <c r="H31" s="16">
-        <v>29</v>
-      </c>
-      <c r="I31" s="16">
-        <v>30</v>
-      </c>
-      <c r="J31" s="16">
-        <v>31</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="F32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="16">
-        <v>1</v>
-      </c>
-      <c r="L33" s="16">
-        <v>2</v>
-      </c>
-      <c r="M33" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="10">
-        <v>4</v>
-      </c>
-      <c r="H34" s="10">
-        <v>5</v>
-      </c>
-      <c r="I34" s="10">
-        <v>6</v>
-      </c>
-      <c r="J34" s="10">
-        <v>7</v>
-      </c>
-      <c r="K34" s="10">
-        <v>8</v>
-      </c>
-      <c r="L34" s="10">
-        <v>9</v>
-      </c>
-      <c r="M34" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="10">
-        <v>11</v>
-      </c>
-      <c r="H35" s="10">
-        <v>12</v>
-      </c>
-      <c r="I35" s="10">
-        <v>13</v>
-      </c>
-      <c r="J35" s="10">
-        <v>14</v>
-      </c>
-      <c r="K35" s="10">
-        <v>15</v>
-      </c>
-      <c r="L35" s="4">
-        <v>16</v>
-      </c>
-      <c r="M35" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4">
-        <v>18</v>
-      </c>
-      <c r="H36" s="4">
-        <v>19</v>
-      </c>
-      <c r="I36" s="4">
-        <v>20</v>
-      </c>
-      <c r="J36" s="4">
-        <v>21</v>
-      </c>
-      <c r="K36" s="4">
-        <v>22</v>
-      </c>
-      <c r="L36" s="8">
-        <v>23</v>
-      </c>
-      <c r="M36" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4">
-        <v>25</v>
-      </c>
-      <c r="H37" s="4">
-        <v>26</v>
-      </c>
-      <c r="I37" s="4">
-        <v>27</v>
-      </c>
-      <c r="J37" s="4">
-        <v>28</v>
-      </c>
-      <c r="K37" s="4">
-        <v>29</v>
-      </c>
-      <c r="L37" s="4">
-        <v>30</v>
-      </c>
-      <c r="M37" s="4">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\WinterGame_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFE25B0-0449-42FC-AA14-53E2D04C1EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E99A48A-4F1F-483E-8FDE-27E2E65B5F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7566CFE-2916-499A-9B03-90D4A40E65D0}"/>
   </bookViews>
@@ -827,7 +827,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -867,7 +867,9 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
       <c r="F3">
         <f>SUM(C3:C50)</f>
         <v>139</v>
@@ -885,7 +887,9 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
@@ -895,7 +899,9 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
@@ -905,7 +911,9 @@
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
@@ -915,7 +923,9 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
@@ -959,7 +969,9 @@
       <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1053,7 +1065,9 @@
       <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="11">
         <v>16</v>
@@ -1119,7 +1133,9 @@
       <c r="C15" s="2">
         <v>4</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="11">
         <v>30</v>
@@ -1139,7 +1155,9 @@
       <c r="C16" s="2">
         <v>4</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
       <c r="F16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1307,7 +1325,9 @@
       <c r="C22" s="2">
         <v>2</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
       <c r="F22" s="6" t="s">
         <v>15</v>
       </c>

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\WinterGame_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SasakiTaiga\Documents\GitHub\WinterGame_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E99A48A-4F1F-483E-8FDE-27E2E65B5F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910BD2E5-8924-4D57-AA18-11538EC14D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7566CFE-2916-499A-9B03-90D4A40E65D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -298,6 +298,13 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>オオワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浮遊するだけ</t>
+    <rPh sb="0" eb="2">
+      <t>フユウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -435,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,6 +495,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64E8C5C-0215-4D6D-A7A8-9AD81DDE0766}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -871,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <f>SUM(C3:C50)</f>
+        <f>SUM(C3:C51)</f>
         <v>139</v>
       </c>
       <c r="G3">
@@ -1341,13 +1354,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2"/>
+      <c r="B23" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1366,10 +1379,10 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2"/>
       <c r="F24" s="3"/>
@@ -1396,11 +1409,12 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="17">
-        <v>12</v>
+      <c r="A25" s="18"/>
+      <c r="B25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="3"/>
@@ -1427,11 +1441,12 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="17">
+        <v>12</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3">
@@ -1457,13 +1472,11 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="2">
-        <v>4</v>
-      </c>
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3">
@@ -1491,7 +1504,7 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -1501,27 +1514,31 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -1560,6 +1577,12 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
